--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.55404081988228</v>
+        <v>14.21340333333333</v>
       </c>
       <c r="H2">
-        <v>8.55404081988228</v>
+        <v>42.64021</v>
       </c>
       <c r="I2">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230342</v>
       </c>
       <c r="J2">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.89129417765006</v>
+        <v>5.188906999999999</v>
       </c>
       <c r="N2">
-        <v>2.89129417765006</v>
+        <v>15.566721</v>
       </c>
       <c r="O2">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994867</v>
       </c>
       <c r="P2">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994868</v>
       </c>
       <c r="Q2">
-        <v>24.73224841790658</v>
+        <v>73.75202805015665</v>
       </c>
       <c r="R2">
-        <v>24.73224841790658</v>
+        <v>663.7682524514099</v>
       </c>
       <c r="S2">
-        <v>0.0006958826100744474</v>
+        <v>0.001927768664325721</v>
       </c>
       <c r="T2">
-        <v>0.0006958826100744474</v>
+        <v>0.001927768664325721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.55404081988228</v>
+        <v>14.21340333333333</v>
       </c>
       <c r="H3">
-        <v>8.55404081988228</v>
+        <v>42.64021</v>
       </c>
       <c r="I3">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230342</v>
       </c>
       <c r="J3">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230343</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.1797773612841</v>
+        <v>67.633555</v>
       </c>
       <c r="N3">
-        <v>67.1797773612841</v>
+        <v>202.900665</v>
       </c>
       <c r="O3">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761694</v>
       </c>
       <c r="P3">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761695</v>
       </c>
       <c r="Q3">
-        <v>574.6585578190276</v>
+        <v>961.3029960821833</v>
       </c>
       <c r="R3">
-        <v>574.6585578190276</v>
+        <v>8651.72696473965</v>
       </c>
       <c r="S3">
-        <v>0.01616896653954001</v>
+        <v>0.02512703503569252</v>
       </c>
       <c r="T3">
-        <v>0.01616896653954001</v>
+        <v>0.02512703503569253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.55404081988228</v>
+        <v>14.21340333333333</v>
       </c>
       <c r="H4">
-        <v>8.55404081988228</v>
+        <v>42.64021</v>
       </c>
       <c r="I4">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230342</v>
       </c>
       <c r="J4">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230343</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>127.457820865479</v>
+        <v>128.9862746666667</v>
       </c>
       <c r="N4">
-        <v>127.457820865479</v>
+        <v>386.958824</v>
       </c>
       <c r="O4">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="P4">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="Q4">
-        <v>1090.279402496551</v>
+        <v>1833.333946301449</v>
       </c>
       <c r="R4">
-        <v>1090.279402496551</v>
+        <v>16500.00551671304</v>
       </c>
       <c r="S4">
-        <v>0.03067680962521757</v>
+        <v>0.04792063115228517</v>
       </c>
       <c r="T4">
-        <v>0.03067680962521757</v>
+        <v>0.04792063115228518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.9116352036407</v>
+        <v>29.428335</v>
       </c>
       <c r="H5">
-        <v>28.9116352036407</v>
+        <v>88.285005</v>
       </c>
       <c r="I5">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976335</v>
       </c>
       <c r="J5">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976336</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.89129417765006</v>
+        <v>5.188906999999999</v>
       </c>
       <c r="N5">
-        <v>2.89129417765006</v>
+        <v>15.566721</v>
       </c>
       <c r="O5">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994867</v>
       </c>
       <c r="P5">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994868</v>
       </c>
       <c r="Q5">
-        <v>83.59204253062886</v>
+        <v>152.700893479845</v>
       </c>
       <c r="R5">
-        <v>83.59204253062886</v>
+        <v>1374.308041318605</v>
       </c>
       <c r="S5">
-        <v>0.002352000018548736</v>
+        <v>0.003991374952628976</v>
       </c>
       <c r="T5">
-        <v>0.002352000018548736</v>
+        <v>0.003991374952628977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.9116352036407</v>
+        <v>29.428335</v>
       </c>
       <c r="H6">
-        <v>28.9116352036407</v>
+        <v>88.285005</v>
       </c>
       <c r="I6">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976335</v>
       </c>
       <c r="J6">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976336</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.1797773612841</v>
+        <v>67.633555</v>
       </c>
       <c r="N6">
-        <v>67.1797773612841</v>
+        <v>202.900665</v>
       </c>
       <c r="O6">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761694</v>
       </c>
       <c r="P6">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761695</v>
       </c>
       <c r="Q6">
-        <v>1942.277216131246</v>
+        <v>1990.342913780925</v>
       </c>
       <c r="R6">
-        <v>1942.277216131246</v>
+        <v>17913.08622402832</v>
       </c>
       <c r="S6">
-        <v>0.05464917365422237</v>
+        <v>0.05202461277187166</v>
       </c>
       <c r="T6">
-        <v>0.05464917365422237</v>
+        <v>0.05202461277187168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.9116352036407</v>
+        <v>29.428335</v>
       </c>
       <c r="H7">
-        <v>28.9116352036407</v>
+        <v>88.285005</v>
       </c>
       <c r="I7">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976335</v>
       </c>
       <c r="J7">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976336</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.457820865479</v>
+        <v>128.9862746666667</v>
       </c>
       <c r="N7">
-        <v>127.457820865479</v>
+        <v>386.958824</v>
       </c>
       <c r="O7">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="P7">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="Q7">
-        <v>3685.014020713712</v>
+        <v>3795.85130129268</v>
       </c>
       <c r="R7">
-        <v>3685.014020713712</v>
+        <v>34162.66171163412</v>
       </c>
       <c r="S7">
-        <v>0.1036839486473283</v>
+        <v>0.0992179250731329</v>
       </c>
       <c r="T7">
-        <v>0.1036839486473283</v>
+        <v>0.09921792507313291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>142.461592824965</v>
+        <v>145.9323983333333</v>
       </c>
       <c r="H8">
-        <v>142.461592824965</v>
+        <v>437.797195</v>
       </c>
       <c r="I8">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="J8">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.89129417765006</v>
+        <v>5.188906999999999</v>
       </c>
       <c r="N8">
-        <v>2.89129417765006</v>
+        <v>15.566721</v>
       </c>
       <c r="O8">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994867</v>
       </c>
       <c r="P8">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994868</v>
       </c>
       <c r="Q8">
-        <v>411.8983738735749</v>
+        <v>757.2296432386216</v>
       </c>
       <c r="R8">
-        <v>411.8983738735749</v>
+        <v>6815.066789147594</v>
       </c>
       <c r="S8">
-        <v>0.01158944025845368</v>
+        <v>0.01979286016299397</v>
       </c>
       <c r="T8">
-        <v>0.01158944025845368</v>
+        <v>0.01979286016299398</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>142.461592824965</v>
+        <v>145.9323983333333</v>
       </c>
       <c r="H9">
-        <v>142.461592824965</v>
+        <v>437.797195</v>
       </c>
       <c r="I9">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="J9">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.1797773612841</v>
+        <v>67.633555</v>
       </c>
       <c r="N9">
-        <v>67.1797773612841</v>
+        <v>202.900665</v>
       </c>
       <c r="O9">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761694</v>
       </c>
       <c r="P9">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761695</v>
       </c>
       <c r="Q9">
-        <v>9570.538088515057</v>
+        <v>9869.92688895941</v>
       </c>
       <c r="R9">
-        <v>9570.538088515057</v>
+        <v>88829.34200063467</v>
       </c>
       <c r="S9">
-        <v>0.2692828776550229</v>
+        <v>0.2579852551686053</v>
       </c>
       <c r="T9">
-        <v>0.2692828776550229</v>
+        <v>0.2579852551686053</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.461592824965</v>
+        <v>145.9323983333333</v>
       </c>
       <c r="H10">
-        <v>142.461592824965</v>
+        <v>437.797195</v>
       </c>
       <c r="I10">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="J10">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>127.457820865479</v>
+        <v>128.9862746666667</v>
       </c>
       <c r="N10">
-        <v>127.457820865479</v>
+        <v>386.958824</v>
       </c>
       <c r="O10">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="P10">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="Q10">
-        <v>18157.8441784952</v>
+        <v>18823.27641418875</v>
       </c>
       <c r="R10">
-        <v>18157.8441784952</v>
+        <v>169409.4877276987</v>
       </c>
       <c r="S10">
-        <v>0.510900900991592</v>
+        <v>0.4920125370184638</v>
       </c>
       <c r="T10">
-        <v>0.510900900991592</v>
+        <v>0.4920125370184638</v>
       </c>
     </row>
   </sheetData>
